--- a/test_data/only_animals.xlsx
+++ b/test_data/only_animals.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve">Sex</t>
   </si>
   <si>
-    <t xml:space="preserve">Internal House Name</t>
+    <t xml:space="preserve">Internal  House  Name</t>
   </si>
   <si>
     <t xml:space="preserve">Population _Male</t>
@@ -253,11 +253,11 @@
   </sheetPr>
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.59"/>
